--- a/summaries/trials/Lennnon_animals/lineages.xlsx
+++ b/summaries/trials/Lennnon_animals/lineages.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">Lennnon_animals|Lennon_canine1|Canine|20210301</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.509</t>
+    <t xml:space="preserve">VSP0909</t>
   </si>
 </sst>
 </file>
